--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917AD385-E8DA-4CAF-8576-75C35B3B10ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4EA68-F1CB-4FF6-AB43-62BAD7901D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="3" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="477">
   <si>
     <t>번호</t>
   </si>
@@ -1036,18 +1036,9 @@
     <t>CUST_CD</t>
   </si>
   <si>
-    <t>고객사 코드(업무키)</t>
-  </si>
-  <si>
     <t>UQ 권장(중복불가)</t>
   </si>
   <si>
-    <t>CUST_NM</t>
-  </si>
-  <si>
-    <t>고객사 명칭</t>
-  </si>
-  <si>
     <t>CUST_NM_EN</t>
   </si>
   <si>
@@ -1060,13 +1051,7 @@
     <t>CUST_TYPE_CD</t>
   </si>
   <si>
-    <t>고객구분 코드</t>
-  </si>
-  <si>
     <t>INDUSTRY_CD</t>
-  </si>
-  <si>
-    <t>제조 산업 카테고리</t>
   </si>
   <si>
     <t>MFG_TYPE_CD</t>
@@ -1404,9 +1389,6 @@
     <t>DEV_CAPABILITY_CD</t>
   </si>
   <si>
-    <t>고객 개발 역량 수준 코드</t>
-  </si>
-  <si>
     <t>SOURCE_MOD_YN</t>
   </si>
   <si>
@@ -1467,31 +1449,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공통코드(SORT) - OK</t>
-  </si>
-  <si>
-    <t>공통코드(CREATED) - OK</t>
-  </si>
-  <si>
-    <t>공통코드(UPDATED) - OK</t>
-  </si>
-  <si>
     <t>공통코드(INDUSTRY) - OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공통코드(COMMENTS) - OK</t>
-  </si>
-  <si>
     <t>공통코드(MFG_TYPE - OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 코드(업무키)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객구분 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조 산업 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 개발 역량 수준 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 코드(업무키) , 고객사 명칭 , 제조 산업 카테고리 , 고객개발역량 , 고객소스변경여부 , 사용여부</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1566,6 +1575,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1619,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1656,12 +1671,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1669,6 +1678,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2015,7 +2033,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2137,7 +2155,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>243</v>
@@ -3322,7 +3340,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="K38" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
@@ -3368,16 +3386,16 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K40" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="O40" s="2">
         <v>10</v>
@@ -3388,16 +3406,16 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K41" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="N41" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O41" s="2">
         <v>20</v>
@@ -3408,16 +3426,16 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K42" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O42" s="2">
         <v>30</v>
@@ -3428,16 +3446,16 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K43" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O43" s="2">
         <v>40</v>
@@ -3448,16 +3466,16 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K44" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O44" s="2">
         <v>50</v>
@@ -3468,16 +3486,16 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K45" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O45" s="2">
         <v>60</v>
@@ -3488,16 +3506,16 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K46" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O46" s="2">
         <v>70</v>
@@ -3508,16 +3526,16 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K47" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O47" s="2">
         <v>80</v>
@@ -3528,16 +3546,16 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K48" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O48" s="2">
         <v>90</v>
@@ -3548,16 +3566,16 @@
     </row>
     <row r="49" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K49" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O49" s="2">
         <v>100</v>
@@ -3568,16 +3586,16 @@
     </row>
     <row r="50" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K50" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O50" s="2">
         <v>110</v>
@@ -3588,16 +3606,16 @@
     </row>
     <row r="51" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K51" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O51" s="2">
         <v>120</v>
@@ -3608,16 +3626,16 @@
     </row>
     <row r="52" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K52" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O52" s="2">
         <v>130</v>
@@ -3628,16 +3646,16 @@
     </row>
     <row r="53" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K53" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O53" s="2">
         <v>140</v>
@@ -3656,16 +3674,16 @@
     </row>
     <row r="55" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K55" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O55" s="2">
         <v>200</v>
@@ -3676,16 +3694,16 @@
     </row>
     <row r="56" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K56" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O56" s="2">
         <v>210</v>
@@ -3696,16 +3714,16 @@
     </row>
     <row r="57" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K57" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O57" s="2">
         <v>220</v>
@@ -3716,16 +3734,16 @@
     </row>
     <row r="58" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K58" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O58" s="2">
         <v>230</v>
@@ -3736,16 +3754,16 @@
     </row>
     <row r="59" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K59" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O59" s="2">
         <v>240</v>
@@ -3756,16 +3774,16 @@
     </row>
     <row r="60" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K60" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O60" s="2">
         <v>250</v>
@@ -3784,16 +3802,16 @@
     </row>
     <row r="62" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K62" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O62" s="2">
         <v>300</v>
@@ -3804,16 +3822,16 @@
     </row>
     <row r="63" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K63" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O63" s="2">
         <v>310</v>
@@ -3824,16 +3842,16 @@
     </row>
     <row r="64" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K64" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O64" s="2">
         <v>320</v>
@@ -3844,16 +3862,16 @@
     </row>
     <row r="65" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K65" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O65" s="2">
         <v>330</v>
@@ -3864,16 +3882,16 @@
     </row>
     <row r="66" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K66" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="O66" s="2">
         <v>340</v>
@@ -3884,16 +3902,16 @@
     </row>
     <row r="67" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K67" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O67" s="2">
         <v>350</v>
@@ -3904,16 +3922,16 @@
     </row>
     <row r="68" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K68" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O68" s="2">
         <v>360</v>
@@ -3924,16 +3942,16 @@
     </row>
     <row r="69" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K69" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O69" s="2">
         <v>370</v>
@@ -3944,16 +3962,16 @@
     </row>
     <row r="70" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K70" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="O70" s="2">
         <v>380</v>
@@ -3972,16 +3990,16 @@
     </row>
     <row r="72" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K72" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="O72" s="2">
         <v>400</v>
@@ -3992,16 +4010,16 @@
     </row>
     <row r="73" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K73" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O73" s="2">
         <v>410</v>
@@ -4012,16 +4030,16 @@
     </row>
     <row r="74" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K74" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="O74" s="2">
         <v>420</v>
@@ -4032,16 +4050,16 @@
     </row>
     <row r="75" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K75" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O75" s="2">
         <v>430</v>
@@ -4078,16 +4096,16 @@
     </row>
     <row r="79" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K79" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="O79" s="1">
         <v>10</v>
@@ -4100,16 +4118,16 @@
     </row>
     <row r="80" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K80" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O80" s="1">
         <v>20</v>
@@ -4122,16 +4140,16 @@
     </row>
     <row r="81" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K81" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="M81" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O81" s="1">
         <v>30</v>
@@ -4144,16 +4162,16 @@
     </row>
     <row r="82" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K82" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O82" s="1">
         <v>40</v>
@@ -4212,7 +4230,7 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4227,7 +4245,7 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4242,11 +4260,11 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>359</v>
+      <c r="C4" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -4714,10 +4732,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC2F14-00CE-42B0-989D-BD860C538BF7}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4734,46 +4752,46 @@
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -4802,12 +4820,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>467</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>325</v>
@@ -4828,8 +4846,11 @@
       <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L6" s="17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -4837,7 +4858,7 @@
         <v>328</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>329</v>
+        <v>471</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -4851,18 +4872,18 @@
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>331</v>
+        <v>468</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>332</v>
+        <v>472</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>38</v>
@@ -4877,15 +4898,15 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>38</v>
@@ -4899,18 +4920,18 @@
         <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>337</v>
+        <v>473</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
@@ -4924,18 +4945,18 @@
         <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -4949,18 +4970,18 @@
         <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
@@ -4974,18 +4995,18 @@
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -4999,18 +5020,18 @@
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -5020,24 +5041,24 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>33</v>
@@ -5051,18 +5072,18 @@
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>33</v>
@@ -5076,7 +5097,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -5084,13 +5105,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -5101,7 +5122,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5109,13 +5130,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -5126,7 +5147,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5134,13 +5155,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -5151,7 +5172,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5159,10 +5180,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
@@ -5176,7 +5197,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5184,13 +5205,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -5259,7 +5280,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>469</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -5284,7 +5305,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>470</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
@@ -5384,46 +5405,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -5713,46 +5734,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -6080,7 +6101,7 @@
       <c r="I17" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="C29" s="16"/>
+      <c r="C29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4EA68-F1CB-4FF6-AB43-62BAD7901D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF47552-9C4D-4C0C-BD26-F66B40845221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="3" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="483">
   <si>
     <t>번호</t>
   </si>
@@ -1493,7 +1493,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객사 코드(업무키) , 고객사 명칭 , 제조 산업 카테고리 , 고객개발역량 , 고객소스변경여부 , 사용여부</t>
+    <t>공통코드 사용해서 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력시 콤보박스대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자 , 수정자는 아이디를 DB 저장시에 API에게 넘긴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1634,7 +1659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,14 +1705,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4732,20 +4760,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC2F14-00CE-42B0-989D-BD860C538BF7}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="B34" sqref="B34:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="21.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.75" style="7" bestFit="1" customWidth="1"/>
@@ -4753,43 +4781,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -4846,9 +4874,7 @@
       <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>476</v>
-      </c>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -5368,6 +5394,298 @@
         <v>15</v>
       </c>
       <c r="I27" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5405,46 +5723,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -5734,46 +6052,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF47552-9C4D-4C0C-BD26-F66B40845221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BECEE7-720B-4482-86F2-A1BE9480F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="3" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="2" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
     <sheet name="공통코드" sheetId="53" r:id="rId2"/>
     <sheet name="테이블목록" sheetId="2" r:id="rId3"/>
-    <sheet name="CUST_CUSTOMER_MST" sheetId="54" r:id="rId4"/>
-    <sheet name="COM_CODE_GRP_MST" sheetId="49" r:id="rId5"/>
-    <sheet name="COM_CODE_DTL_MST" sheetId="51" r:id="rId6"/>
+    <sheet name="CUST_SITE" sheetId="58" r:id="rId4"/>
+    <sheet name="CUST_CONTACT_SITE_MAP" sheetId="57" r:id="rId5"/>
+    <sheet name="CUST_CONTACT_ROLE_MAP" sheetId="56" r:id="rId6"/>
+    <sheet name="CUST_CONTACT" sheetId="55" r:id="rId7"/>
+    <sheet name="CUST_CUSTOMER_MST" sheetId="54" r:id="rId8"/>
+    <sheet name="COM_CODE_GRP_MST" sheetId="49" r:id="rId9"/>
+    <sheet name="COM_CODE_DTL_MST" sheetId="51" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="586">
   <si>
     <t>번호</t>
   </si>
@@ -1033,9 +1037,6 @@
     <t>IDENTITY(1,1)</t>
   </si>
   <si>
-    <t>CUST_CD</t>
-  </si>
-  <si>
     <t>UQ 권장(중복불가)</t>
   </si>
   <si>
@@ -1519,6 +1520,341 @@
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTACT_ID</t>
+  </si>
+  <si>
+    <t>담당자ID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+  </si>
+  <si>
+    <t>고객사ID</t>
+  </si>
+  <si>
+    <t>CONTACT_CD</t>
+  </si>
+  <si>
+    <t>담당자코드(내부관리용)</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>없으면 자동생성/미사용 가능</t>
+  </si>
+  <si>
+    <t>CONTACT_NM</t>
+  </si>
+  <si>
+    <t>담당자명</t>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+  </si>
+  <si>
+    <t>DEPT_NM</t>
+  </si>
+  <si>
+    <t>부서명</t>
+  </si>
+  <si>
+    <t>DUTY_NM</t>
+  </si>
+  <si>
+    <t>직책/직급</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>MOBILE_NO</t>
+  </si>
+  <si>
+    <t>휴대폰번호</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>이메일</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>중복허용/유니크는 정책에 따라</t>
+  </si>
+  <si>
+    <t>IS_MAIN</t>
+  </si>
+  <si>
+    <t>고객사 대표담당자여부</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t>IS_ACTIVE</t>
+  </si>
+  <si>
+    <t>사용여부</t>
+  </si>
+  <si>
+    <t>Y/N (퇴사/비활성 포함)</t>
+  </si>
+  <si>
+    <t>START_DT</t>
+  </si>
+  <si>
+    <t>적용시작일</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>END_DT</t>
+  </si>
+  <si>
+    <t>적용종료일</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>CRT_DT</t>
+  </si>
+  <si>
+    <t>datetime2(0)</t>
+  </si>
+  <si>
+    <t>CRT_BY</t>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+  </si>
+  <si>
+    <t>UPD_DT</t>
+  </si>
+  <si>
+    <t>트리거/앱에서 갱신</t>
+  </si>
+  <si>
+    <t>UPD_BY</t>
+  </si>
+  <si>
+    <t>CRT_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK -&gt; CUST_CUSTOMER.CUST_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION 붙여서 CREATE DLL 작성 부탁해</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK -&gt; CUST_CUSTOMER_MST.CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>FK -&gt; CUST_CUSTOMER_MST.CUSTOMER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_CONTACT_ROLE_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자-역할 매핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTACT_ROLE_MAP_ID</t>
+  </si>
+  <si>
+    <t>담당자-역할 매핑ID</t>
+  </si>
+  <si>
+    <t>FK -&gt; CUST_CONTACT.CONTACT_ID</t>
+  </si>
+  <si>
+    <t>ROLE_CD</t>
+  </si>
+  <si>
+    <t>역할코드</t>
+  </si>
+  <si>
+    <t>공통코드(예: CONTACT_ROLE) 권장</t>
+  </si>
+  <si>
+    <t>IS_PRIMARY</t>
+  </si>
+  <si>
+    <t>대표역할여부(Y/N)</t>
+  </si>
+  <si>
+    <t>CK: ('Y','N')</t>
+  </si>
+  <si>
+    <t>CK: START_DT&lt;=END_DT (둘 다 있을 때)</t>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTACT_SITE_MAP_ID</t>
+  </si>
+  <si>
+    <t>담당자-사업장 매핑ID</t>
+  </si>
+  <si>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>사업장ID</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>FK -&gt; CUST_SITE.SITE_ID</t>
+  </si>
+  <si>
+    <t>(선택)사업장기준 역할코드</t>
+  </si>
+  <si>
+    <t>사업장별 역할이 다를 때 사용</t>
+  </si>
+  <si>
+    <t>사업장 대표담당자여부(Y/N)</t>
+  </si>
+  <si>
+    <t>CUST_CONTACT_SITE_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자-사업장 매핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_SITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업장 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업장 내부 식별자</t>
+  </si>
+  <si>
+    <t>SITE_CD</t>
+  </si>
+  <si>
+    <t>사업장 코드(업무키)</t>
+  </si>
+  <si>
+    <t>UQ 권장(고객사+사업장코드)</t>
+  </si>
+  <si>
+    <t>SITE_NM</t>
+  </si>
+  <si>
+    <t>사업장 명칭</t>
+  </si>
+  <si>
+    <t>SITE_NM_EN</t>
+  </si>
+  <si>
+    <t>사업장 영문명</t>
+  </si>
+  <si>
+    <t>SITE_TYPE_CD</t>
+  </si>
+  <si>
+    <t>사업장 구분 코드</t>
+  </si>
+  <si>
+    <t>공통코드(SITE_TYPE) 권장(본사/공장/물류/지사 등)</t>
+  </si>
+  <si>
+    <t>사업장 대표전화</t>
+  </si>
+  <si>
+    <t>FAX_NO</t>
+  </si>
+  <si>
+    <t>팩스번호</t>
+  </si>
+  <si>
+    <t>해외 사업장 시 권장(공통코드: TZ)</t>
+  </si>
+  <si>
+    <t>고객사 대표 사업장 여부(Y/N)</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1696,17 +2032,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1714,7 +2050,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2052,16 +2394,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4610C02-96F3-4076-B0E4-152D1FC5E67C}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2070,8 +2412,422 @@
         <v>77</v>
       </c>
     </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>539</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345CEA98-5B71-488C-A0BF-184A31A0E369}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="18.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="43.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="C29" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{C3E12C4E-A05D-461F-B860-FAFA6E2E6BF0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2183,7 +2939,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>243</v>
@@ -3368,7 +4124,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="K38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
@@ -3414,16 +4170,16 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K40" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="O40" s="2">
         <v>10</v>
@@ -3434,16 +4190,16 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K41" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="O41" s="2">
         <v>20</v>
@@ -3454,16 +4210,16 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="N42" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O42" s="2">
         <v>30</v>
@@ -3474,16 +4230,16 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K43" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="O43" s="2">
         <v>40</v>
@@ -3494,16 +4250,16 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K44" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L44" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O44" s="2">
         <v>50</v>
@@ -3514,16 +4270,16 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L45" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="N45" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O45" s="2">
         <v>60</v>
@@ -3534,16 +4290,16 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K46" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="N46" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O46" s="2">
         <v>70</v>
@@ -3554,16 +4310,16 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K47" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L47" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="O47" s="2">
         <v>80</v>
@@ -3574,16 +4330,16 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K48" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L48" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="N48" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O48" s="2">
         <v>90</v>
@@ -3594,16 +4350,16 @@
     </row>
     <row r="49" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K49" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L49" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="N49" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O49" s="2">
         <v>100</v>
@@ -3614,16 +4370,16 @@
     </row>
     <row r="50" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L50" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="N50" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O50" s="2">
         <v>110</v>
@@ -3634,16 +4390,16 @@
     </row>
     <row r="51" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K51" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L51" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="N51" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O51" s="2">
         <v>120</v>
@@ -3654,16 +4410,16 @@
     </row>
     <row r="52" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K52" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L52" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="N52" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="O52" s="2">
         <v>130</v>
@@ -3674,16 +4430,16 @@
     </row>
     <row r="53" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K53" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L53" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="N53" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="O53" s="2">
         <v>140</v>
@@ -3702,16 +4458,16 @@
     </row>
     <row r="55" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K55" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L55" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="O55" s="2">
         <v>200</v>
@@ -3722,16 +4478,16 @@
     </row>
     <row r="56" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K56" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L56" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="N56" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="O56" s="2">
         <v>210</v>
@@ -3742,16 +4498,16 @@
     </row>
     <row r="57" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K57" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="N57" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O57" s="2">
         <v>220</v>
@@ -3762,16 +4518,16 @@
     </row>
     <row r="58" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K58" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L58" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="N58" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O58" s="2">
         <v>230</v>
@@ -3782,16 +4538,16 @@
     </row>
     <row r="59" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K59" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L59" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="N59" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O59" s="2">
         <v>240</v>
@@ -3802,16 +4558,16 @@
     </row>
     <row r="60" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K60" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="O60" s="2">
         <v>250</v>
@@ -3830,16 +4586,16 @@
     </row>
     <row r="62" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K62" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="O62" s="2">
         <v>300</v>
@@ -3850,16 +4606,16 @@
     </row>
     <row r="63" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K63" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="O63" s="2">
         <v>310</v>
@@ -3870,16 +4626,16 @@
     </row>
     <row r="64" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K64" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L64" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="O64" s="2">
         <v>320</v>
@@ -3890,16 +4646,16 @@
     </row>
     <row r="65" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L65" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="O65" s="2">
         <v>330</v>
@@ -3910,16 +4666,16 @@
     </row>
     <row r="66" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K66" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L66" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="N66" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="O66" s="2">
         <v>340</v>
@@ -3930,16 +4686,16 @@
     </row>
     <row r="67" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K67" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L67" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="N67" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="O67" s="2">
         <v>350</v>
@@ -3950,16 +4706,16 @@
     </row>
     <row r="68" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K68" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L68" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="N68" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O68" s="2">
         <v>360</v>
@@ -3970,16 +4726,16 @@
     </row>
     <row r="69" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K69" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L69" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="O69" s="2">
         <v>370</v>
@@ -3990,16 +4746,16 @@
     </row>
     <row r="70" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K70" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="O70" s="2">
         <v>380</v>
@@ -4018,16 +4774,16 @@
     </row>
     <row r="72" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K72" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L72" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="N72" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="O72" s="2">
         <v>400</v>
@@ -4038,16 +4794,16 @@
     </row>
     <row r="73" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="N73" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O73" s="2">
         <v>410</v>
@@ -4058,16 +4814,16 @@
     </row>
     <row r="74" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K74" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L74" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="N74" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="O74" s="2">
         <v>420</v>
@@ -4078,16 +4834,16 @@
     </row>
     <row r="75" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K75" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L75" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="N75" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="O75" s="2">
         <v>430</v>
@@ -4124,16 +4880,16 @@
     </row>
     <row r="79" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K79" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O79" s="1">
         <v>10</v>
@@ -4146,16 +4902,16 @@
     </row>
     <row r="80" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K80" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L80" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="O80" s="1">
         <v>20</v>
@@ -4168,16 +4924,16 @@
     </row>
     <row r="81" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K81" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L81" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="O81" s="1">
         <v>30</v>
@@ -4190,16 +4946,16 @@
     </row>
     <row r="82" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K82" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L82" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="O82" s="1">
         <v>40</v>
@@ -4220,8 +4976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BD3378-FD9D-45AC-A3C1-E2DAF63B112D}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4251,14 +5007,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4266,14 +5022,14 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4281,18 +5037,18 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -4303,8 +5059,12 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4314,8 +5074,12 @@
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>545</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4325,8 +5089,12 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>567</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4336,8 +5104,12 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>569</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4655,7 +5427,7 @@
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
@@ -4666,7 +5438,7 @@
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -4688,7 +5460,7 @@
       <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
@@ -4699,7 +5471,7 @@
       <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
@@ -4710,7 +5482,7 @@
       <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
@@ -4721,7 +5493,7 @@
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
@@ -4732,7 +5504,7 @@
       <c r="B44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="11"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
@@ -4743,7 +5515,7 @@
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
@@ -4753,17 +5525,2284 @@
     <hyperlink ref="C2" location="COM_CODE_GRP_MST!A1" display="COM_CODE_GRP_MST" xr:uid="{E6358639-6EDC-49A8-A92D-170DA42934FF}"/>
     <hyperlink ref="C3" location="COM_CODE_DTL_MST!A1" display="COM_CODE_DTL_MST" xr:uid="{710A95ED-E6FF-49E2-97D9-0FB6C0A65F90}"/>
     <hyperlink ref="C4" location="CUST_CUSTOMER_MST!A1" display="CUST_CUSTOMER_MST" xr:uid="{F261F8AF-C775-4951-91B2-25E699D2E69F}"/>
+    <hyperlink ref="C5" location="CUST_CONTACT!A1" display="CUST_CONTACT" xr:uid="{A74F67D6-A7A0-4500-9A05-D134B1B96870}"/>
+    <hyperlink ref="C6" location="CUST_CONTACT_ROLE_MAP!A1" display="CUST_CONTACT_ROLE_MAP" xr:uid="{9FF3B136-58F4-4C81-B6EA-9446CBC0A00A}"/>
+    <hyperlink ref="C7" location="CUST_CONTACT_SITE_MAP!A1" display="CUST_CONTACT_SITE_MAP" xr:uid="{7B8BE51A-F5A7-4E19-89F8-03E939984E14}"/>
+    <hyperlink ref="C8" location="CUST_SITE!A1" display="CUST_SITE" xr:uid="{25B03D86-DA97-48DB-AE74-9E3AFB45504A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="20" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{0733D383-888A-4CFA-A03B-EC22DDADC5A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C105AF0-B090-496A-968F-781BA47C2FC0}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="20" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{A1903D38-92A8-4BCA-A437-24ECA5E37314}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390B5EB-DD6B-4BCA-95BD-A9C9896724A5}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="37.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{5429056C-D785-4719-8D13-E0BFB0722143}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7327DE-65FD-48BC-9BB0-86C782D5A620}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC2F14-00CE-42B0-989D-BD860C538BF7}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:F56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4799,7 +7838,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -4812,7 +7851,7 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -4853,13 +7892,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>325</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -4874,17 +7913,17 @@
       <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>328</v>
+        <v>541</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -4898,7 +7937,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4906,10 +7945,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>38</v>
@@ -4929,10 +7968,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>38</v>
@@ -4946,7 +7985,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -4954,10 +7993,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
@@ -4971,7 +8010,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -4979,10 +8018,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -4996,7 +8035,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -5004,10 +8043,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
@@ -5021,7 +8060,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -5029,10 +8068,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -5046,7 +8085,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -5054,10 +8093,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -5067,13 +8106,13 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -5081,10 +8120,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>33</v>
@@ -5098,7 +8137,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -5106,10 +8145,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>33</v>
@@ -5123,7 +8162,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -5131,13 +8170,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -5148,7 +8187,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5156,13 +8195,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -5173,7 +8212,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5181,13 +8220,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -5198,7 +8237,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5206,10 +8245,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
@@ -5223,7 +8262,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5231,13 +8270,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -5306,7 +8345,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -5331,7 +8370,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
@@ -5397,24 +8436,24 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="F34" s="18" t="s">
+      <c r="E34" s="15" t="s">
         <v>479</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -5428,199 +8467,199 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
@@ -5631,7 +8670,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
@@ -5640,11 +8679,11 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
@@ -5653,7 +8692,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -5673,7 +8712,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -5701,7 +8740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9611A161-A5E8-4D6A-BBF2-86194D46CA64}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -6027,413 +9066,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345CEA98-5B71-488C-A0BF-184A31A0E369}">
-  <dimension ref="A1:J29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="18.75" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="43.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="C29" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{C3E12C4E-A05D-461F-B860-FAFA6E2E6BF0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BECEE7-720B-4482-86F2-A1BE9480F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A9A3FC-AB40-486C-80D0-22D006FE11E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="2" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="3" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -2044,12 +2044,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2058,6 +2052,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2446,46 +2446,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -4976,8 +4976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BD3378-FD9D-45AC-A3C1-E2DAF63B112D}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5014,7 +5014,7 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5538,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5548,54 +5548,56 @@
     <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="7"/>
+    <col min="5" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
     <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6166,48 +6168,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6570,50 +6572,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -6961,47 +6963,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -7820,43 +7822,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -8762,46 +8764,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A9A3FC-AB40-486C-80D0-22D006FE11E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A318F29-A13A-4DE6-8042-F97F4441E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="3" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="-28920" yWindow="2745" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="5" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -2428,7 +2428,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4977,7 +4977,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5538,7 +5538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
@@ -6562,12 +6562,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390B5EB-DD6B-4BCA-95BD-A9C9896724A5}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8747,7 +8751,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A318F29-A13A-4DE6-8042-F97F4441E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B914667-BCDB-453B-977F-CA09813C2496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2745" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="5" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="38280" yWindow="1965" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="4" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
     <sheet name="공통코드" sheetId="53" r:id="rId2"/>
     <sheet name="테이블목록" sheetId="2" r:id="rId3"/>
-    <sheet name="CUST_SITE" sheetId="58" r:id="rId4"/>
-    <sheet name="CUST_CONTACT_SITE_MAP" sheetId="57" r:id="rId5"/>
-    <sheet name="CUST_CONTACT_ROLE_MAP" sheetId="56" r:id="rId6"/>
-    <sheet name="CUST_CONTACT" sheetId="55" r:id="rId7"/>
-    <sheet name="CUST_CUSTOMER_MST" sheetId="54" r:id="rId8"/>
-    <sheet name="COM_CODE_GRP_MST" sheetId="49" r:id="rId9"/>
-    <sheet name="COM_CODE_DTL_MST" sheetId="51" r:id="rId10"/>
+    <sheet name="MST_USR_ACCOUNT" sheetId="60" r:id="rId4"/>
+    <sheet name="SYS_EMPLOYEE_MST" sheetId="59" r:id="rId5"/>
+    <sheet name="CUST_SITE" sheetId="58" r:id="rId6"/>
+    <sheet name="CUST_CONTACT_SITE_MAP" sheetId="57" r:id="rId7"/>
+    <sheet name="CUST_CONTACT_ROLE_MAP" sheetId="56" r:id="rId8"/>
+    <sheet name="CUST_CONTACT" sheetId="55" r:id="rId9"/>
+    <sheet name="CUST_CUSTOMER_MST" sheetId="54" r:id="rId10"/>
+    <sheet name="COM_CODE_GRP_MST" sheetId="49" r:id="rId11"/>
+    <sheet name="COM_CODE_DTL_MST" sheetId="51" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="649">
   <si>
     <t>번호</t>
   </si>
@@ -1855,13 +1857,206 @@
   </si>
   <si>
     <t>고객사 대표 사업장 여부(Y/N)</t>
+  </si>
+  <si>
+    <t>SYS_EMPLOYEE_MST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+  </si>
+  <si>
+    <t>직원 내부 식별자</t>
+  </si>
+  <si>
+    <t>EMP_NO</t>
+  </si>
+  <si>
+    <t>사번/로그인ID(업무키)</t>
+  </si>
+  <si>
+    <t>UQ_SYS_EMPLOYEE_MST_EMP_NO</t>
+  </si>
+  <si>
+    <t>중복불가(유니크)</t>
+  </si>
+  <si>
+    <t>EMP_NM</t>
+  </si>
+  <si>
+    <t>직원명</t>
+  </si>
+  <si>
+    <t>NVARCHAR(100)</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>DEPT_GRP_CD</t>
+  </si>
+  <si>
+    <t>부서코드 그룹코드</t>
+  </si>
+  <si>
+    <t>'SYS_DEPT'</t>
+  </si>
+  <si>
+    <t>FK용 그룹코드(기본값 고정)</t>
+  </si>
+  <si>
+    <t>DEPT_CD</t>
+  </si>
+  <si>
+    <t>부서코드</t>
+  </si>
+  <si>
+    <t>IX_SYS_EMPLOYEE_MST_DEPT</t>
+  </si>
+  <si>
+    <t>FK -&gt; COM_CODE_DTL_MST(CODE_GRP_CD, CODE_CD)</t>
+  </si>
+  <si>
+    <t>POSITION_NM</t>
+  </si>
+  <si>
+    <t>직급명</t>
+  </si>
+  <si>
+    <t>JOB_NM</t>
+  </si>
+  <si>
+    <t>직무명</t>
+  </si>
+  <si>
+    <t>HIRE_DT</t>
+  </si>
+  <si>
+    <t>입사일</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>RESIGN_DT</t>
+  </si>
+  <si>
+    <t>퇴사일</t>
+  </si>
+  <si>
+    <t>CK: HIRE_DT&lt;=RESIGN_DT (둘 다 있을 때)</t>
+  </si>
+  <si>
+    <t>ACTIVE_YN</t>
+  </si>
+  <si>
+    <t>재직/사용여부(Y/N)</t>
+  </si>
+  <si>
+    <t>IX_SYS_EMPLOYEE_MST_ACTIVE</t>
+  </si>
+  <si>
+    <t>SR_HANDLE_YN</t>
+  </si>
+  <si>
+    <t>SR 처리 담당 여부(Y/N)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(500)</t>
+  </si>
+  <si>
+    <t>DATETIME2(0)</t>
+  </si>
+  <si>
+    <t>NVARCHAR(40)</t>
+  </si>
+  <si>
+    <t>사용자 계정 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST_USR_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NO</t>
+  </si>
+  <si>
+    <t>고유번호 (PK)</t>
+  </si>
+  <si>
+    <t>PK (CLUSTERED)</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>NVARCHAR(50)</t>
+  </si>
+  <si>
+    <t>UQ(USER_ID)</t>
+  </si>
+  <si>
+    <t>유니크</t>
+  </si>
+  <si>
+    <t>USER_PWD</t>
+  </si>
+  <si>
+    <t>비밀번호(암호화 전 평문 저장)</t>
+  </si>
+  <si>
+    <t>※ 운영 시 해시/암호화 권장</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>DEFAULT('Y')</t>
+  </si>
+  <si>
+    <t>REG_DT</t>
+  </si>
+  <si>
+    <t>가입일시</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>GETDATE()</t>
+  </si>
+  <si>
+    <t>DEFAULT(getdate())</t>
+  </si>
+  <si>
+    <t>직원 매핑 ID</t>
+  </si>
+  <si>
+    <t>(선택)UQ(EMP_ID)</t>
+  </si>
+  <si>
+    <t>FK -&gt; SYS_EMPLOYEE_MST.EMP_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1918,15 +2113,6 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1995,7 +2181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2029,13 +2215,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2403,7 +2586,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2424,6 +2607,1277 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC2F14-00CE-42B0-989D-BD860C538BF7}">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9611A161-A5E8-4D6A-BBF2-86194D46CA64}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="43.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{D5120CC1-6455-40B1-BEBA-19C42C1B8225}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345CEA98-5B71-488C-A0BF-184A31A0E369}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -2446,46 +3900,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -2813,7 +4267,7 @@
       <c r="I17" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4977,7 +6431,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5014,7 +6468,7 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5104,7 +6558,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>568</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -5119,8 +6573,12 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>587</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5130,8 +6588,12 @@
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>625</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -5529,17 +6991,19 @@
     <hyperlink ref="C6" location="CUST_CONTACT_ROLE_MAP!A1" display="CUST_CONTACT_ROLE_MAP" xr:uid="{9FF3B136-58F4-4C81-B6EA-9446CBC0A00A}"/>
     <hyperlink ref="C7" location="CUST_CONTACT_SITE_MAP!A1" display="CUST_CONTACT_SITE_MAP" xr:uid="{7B8BE51A-F5A7-4E19-89F8-03E939984E14}"/>
     <hyperlink ref="C8" location="CUST_SITE!A1" display="CUST_SITE" xr:uid="{25B03D86-DA97-48DB-AE74-9E3AFB45504A}"/>
+    <hyperlink ref="C9" location="SYS_EMPLOYEE_MST!A1" display="SYS_EMPLOYEE_MST" xr:uid="{E08B2DDE-C20E-444C-8281-E82385B6D621}"/>
+    <hyperlink ref="C10" location="MST_USR_ACCOUNT!A1" display="MST_USR_ACCOUNT" xr:uid="{90750237-E698-4718-9731-EE644F7C0CDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C35920-FB6B-454D-879D-212B54A92065}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5556,48 +7020,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="10"/>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5640,13 +7104,337 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>326</v>
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{016017E4-4B1B-4E29-BC98-BB9BD4CF13E5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F84654-48FF-4FE4-B707-80EFC24828F1}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="33.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -5667,6 +7455,570 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{D4110F3D-FFDE-485B-88FD-CF57440DFD65}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -5914,13 +8266,13 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -6148,7 +8500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C105AF0-B090-496A-968F-781BA47C2FC0}">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -6168,48 +8520,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="10"/>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6522,13 +8874,13 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>522</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -6558,12 +8910,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390B5EB-DD6B-4BCA-95BD-A9C9896724A5}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6576,50 +8928,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -6949,7 +9301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7327DE-65FD-48BC-9BB0-86C782D5A620}">
   <dimension ref="A1:I47"/>
   <sheetViews>
@@ -6967,47 +9319,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -7516,22 +9868,22 @@
       <c r="I23" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7801,1275 +10153,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC2F14-00CE-42B0-989D-BD860C538BF7}">
-  <dimension ref="A1:L56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9611A161-A5E8-4D6A-BBF2-86194D46CA64}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="43.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{D5120CC1-6455-40B1-BEBA-19C42C1B8225}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001.WorkSpace\002.ROOT\ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B914667-BCDB-453B-977F-CA09813C2496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C220A6-DF6D-4DA0-B5F9-0C99860D331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1965" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="4" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="4" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="645">
   <si>
     <t>번호</t>
   </si>
@@ -1898,18 +1898,6 @@
   </si>
   <si>
     <t>PHONE</t>
-  </si>
-  <si>
-    <t>DEPT_GRP_CD</t>
-  </si>
-  <si>
-    <t>부서코드 그룹코드</t>
-  </si>
-  <si>
-    <t>'SYS_DEPT'</t>
-  </si>
-  <si>
-    <t>FK용 그룹코드(기본값 고정)</t>
   </si>
   <si>
     <t>DEPT_CD</t>
@@ -6589,10 +6577,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -7042,7 +7030,7 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -7056,7 +7044,7 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -7104,10 +7092,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>48</v>
@@ -7116,7 +7104,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>327</v>
@@ -7131,26 +7119,26 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7158,10 +7146,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>38</v>
@@ -7175,7 +7163,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7183,13 +7171,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
@@ -7248,7 +7236,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7256,26 +7244,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7286,7 +7274,7 @@
         <v>588</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>48</v>
@@ -7295,14 +7283,14 @@
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -7324,10 +7312,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F84654-48FF-4FE4-B707-80EFC24828F1}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7339,7 +7327,7 @@
     <col min="5" max="6" width="9" style="7"/>
     <col min="7" max="7" width="33.125" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -7562,10 +7550,10 @@
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>601</v>
       </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
@@ -7584,31 +7572,27 @@
         <v>604</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>596</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>605</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>606</v>
-      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>596</v>
@@ -7628,13 +7612,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7651,13 +7635,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>612</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -7667,59 +7651,65 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>616</v>
+      <c r="I16" s="4" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>44</v>
+      <c r="F17" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>554</v>
       </c>
     </row>
@@ -7728,48 +7718,44 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>621</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>618</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>554</v>
-      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
@@ -7780,21 +7766,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
@@ -7805,13 +7789,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -7828,13 +7812,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -7845,29 +7829,6 @@
         <v>15</v>
       </c>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8505,7 +8466,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001.WorkSpace\002.ROOT\ERD\001.Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C220A6-DF6D-4DA0-B5F9-0C99860D331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7235FB9A-A7D3-4070-BF33-462143D0E868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="4" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="-26130" yWindow="6405" windowWidth="28800" windowHeight="15345" tabRatio="895" activeTab="4" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -7315,7 +7315,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7789,7 +7789,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>19</v>

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7235FB9A-A7D3-4070-BF33-462143D0E868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B72629-5F68-4559-A507-C27AF2A15955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26130" yWindow="6405" windowWidth="28800" windowHeight="15345" tabRatio="895" activeTab="4" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="2" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
     <sheet name="공통코드" sheetId="53" r:id="rId2"/>
     <sheet name="테이블목록" sheetId="2" r:id="rId3"/>
-    <sheet name="MST_USR_ACCOUNT" sheetId="60" r:id="rId4"/>
-    <sheet name="SYS_EMPLOYEE_MST" sheetId="59" r:id="rId5"/>
-    <sheet name="CUST_SITE" sheetId="58" r:id="rId6"/>
-    <sheet name="CUST_CONTACT_SITE_MAP" sheetId="57" r:id="rId7"/>
-    <sheet name="CUST_CONTACT_ROLE_MAP" sheetId="56" r:id="rId8"/>
-    <sheet name="CUST_CONTACT" sheetId="55" r:id="rId9"/>
-    <sheet name="CUST_CUSTOMER_MST" sheetId="54" r:id="rId10"/>
-    <sheet name="COM_CODE_GRP_MST" sheetId="49" r:id="rId11"/>
-    <sheet name="COM_CODE_DTL_MST" sheetId="51" r:id="rId12"/>
+    <sheet name="MST_FILE_INFO" sheetId="61" r:id="rId4"/>
+    <sheet name="MST_USR_ACCOUNT" sheetId="60" r:id="rId5"/>
+    <sheet name="SYS_EMPLOYEE_MST" sheetId="59" r:id="rId6"/>
+    <sheet name="CUST_SITE" sheetId="58" r:id="rId7"/>
+    <sheet name="CUST_CONTACT_SITE_MAP" sheetId="57" r:id="rId8"/>
+    <sheet name="CUST_CONTACT_ROLE_MAP" sheetId="56" r:id="rId9"/>
+    <sheet name="CUST_CONTACT" sheetId="55" r:id="rId10"/>
+    <sheet name="CUST_CUSTOMER_MST" sheetId="54" r:id="rId11"/>
+    <sheet name="COM_CODE_GRP_MST" sheetId="49" r:id="rId12"/>
+    <sheet name="COM_CODE_DTL_MST" sheetId="51" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="674">
   <si>
     <t>번호</t>
   </si>
@@ -2038,13 +2039,102 @@
   </si>
   <si>
     <t>FK -&gt; SYS_EMPLOYEE_MST.EMP_ID</t>
+  </si>
+  <si>
+    <t>MST_FILE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 정보 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_NO</t>
+  </si>
+  <si>
+    <t>파일 고유번호 (PK)</t>
+  </si>
+  <si>
+    <t>FILE_ID</t>
+  </si>
+  <si>
+    <t>파일 식별 GUID</t>
+  </si>
+  <si>
+    <t>UQ(FILE_ID)</t>
+  </si>
+  <si>
+    <t>API 노출용 식별자</t>
+  </si>
+  <si>
+    <t>ORIGIN_NM</t>
+  </si>
+  <si>
+    <t>원본 파일명</t>
+  </si>
+  <si>
+    <t>NVARCHAR(255)</t>
+  </si>
+  <si>
+    <t>사용자 업로드 파일명</t>
+  </si>
+  <si>
+    <t>SAVE_NM</t>
+  </si>
+  <si>
+    <t>저장 파일명</t>
+  </si>
+  <si>
+    <t>암호화 후 물리 저장명</t>
+  </si>
+  <si>
+    <t>FILE_PATH</t>
+  </si>
+  <si>
+    <t>물리 저장 경로</t>
+  </si>
+  <si>
+    <t>날짜별 경로 (YYYY/MM/DD)</t>
+  </si>
+  <si>
+    <t>FILE_SIZE</t>
+  </si>
+  <si>
+    <t>파일 크기 (Byte)</t>
+  </si>
+  <si>
+    <t>FILE_EXT</t>
+  </si>
+  <si>
+    <t>파일 확장자</t>
+  </si>
+  <si>
+    <t>NVARCHAR(10)</t>
+  </si>
+  <si>
+    <t>ENC_KEY_ID</t>
+  </si>
+  <si>
+    <t>암호화 키 ID</t>
+  </si>
+  <si>
+    <t>복호화용 키 식별 정보</t>
+  </si>
+  <si>
+    <t>등록일시</t>
+  </si>
+  <si>
+    <t>등록자 ID</t>
+  </si>
+  <si>
+    <t>수정자 ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2116,6 +2206,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2137,7 +2242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2160,6 +2265,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2169,7 +2287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2229,6 +2347,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2595,6 +2725,860 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7327DE-65FD-48BC-9BB0-86C782D5A620}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC2F14-00CE-42B0-989D-BD860C538BF7}">
   <dimension ref="A1:L56"/>
   <sheetViews>
@@ -3537,7 +4521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9611A161-A5E8-4D6A-BBF2-86194D46CA64}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -3865,7 +4849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345CEA98-5B71-488C-A0BF-184A31A0E369}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -6418,8 +7402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BD3378-FD9D-45AC-A3C1-E2DAF63B112D}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6591,8 +7575,12 @@
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>646</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6981,17 +7969,460 @@
     <hyperlink ref="C8" location="CUST_SITE!A1" display="CUST_SITE" xr:uid="{25B03D86-DA97-48DB-AE74-9E3AFB45504A}"/>
     <hyperlink ref="C9" location="SYS_EMPLOYEE_MST!A1" display="SYS_EMPLOYEE_MST" xr:uid="{E08B2DDE-C20E-444C-8281-E82385B6D621}"/>
     <hyperlink ref="C10" location="MST_USR_ACCOUNT!A1" display="MST_USR_ACCOUNT" xr:uid="{90750237-E698-4718-9731-EE644F7C0CDC}"/>
+    <hyperlink ref="C11" location="MST_FILE_INFO!A1" display="MST_FILE_INFO" xr:uid="{2AE0E458-C514-4C01-9F56-6E9E5FBF71EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD3D158-DC74-4FCE-9075-EB44920F310E}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>9</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>10</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>11</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>12</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>13</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C35920-FB6B-454D-879D-212B54A92065}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7310,11 +8741,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F84654-48FF-4FE4-B707-80EFC24828F1}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -7847,7 +9278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -8461,7 +9892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C105AF0-B090-496A-968F-781BA47C2FC0}">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -8871,7 +10302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390B5EB-DD6B-4BCA-95BD-A9C9896724A5}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -9260,858 +10691,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7327DE-65FD-48BC-9BB0-86C782D5A620}">
-  <dimension ref="A1:I47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="39.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B72629-5F68-4559-A507-C27AF2A15955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E0F61-22BD-48CF-99AE-6C280A94EBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="2" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="3" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="689">
   <si>
     <t>번호</t>
   </si>
@@ -2061,12 +2061,6 @@
     <t>파일 식별 GUID</t>
   </si>
   <si>
-    <t>UQ(FILE_ID)</t>
-  </si>
-  <si>
-    <t>API 노출용 식별자</t>
-  </si>
-  <si>
     <t>ORIGIN_NM</t>
   </si>
   <si>
@@ -2076,27 +2070,18 @@
     <t>NVARCHAR(255)</t>
   </si>
   <si>
-    <t>사용자 업로드 파일명</t>
-  </si>
-  <si>
     <t>SAVE_NM</t>
   </si>
   <si>
     <t>저장 파일명</t>
   </si>
   <si>
-    <t>암호화 후 물리 저장명</t>
-  </si>
-  <si>
     <t>FILE_PATH</t>
   </si>
   <si>
     <t>물리 저장 경로</t>
   </si>
   <si>
-    <t>날짜별 경로 (YYYY/MM/DD)</t>
-  </si>
-  <si>
     <t>FILE_SIZE</t>
   </si>
   <si>
@@ -2118,9 +2103,6 @@
     <t>암호화 키 ID</t>
   </si>
   <si>
-    <t>복호화용 키 식별 정보</t>
-  </si>
-  <si>
     <t>등록일시</t>
   </si>
   <si>
@@ -2128,13 +2110,477 @@
   </si>
   <si>
     <t>수정자 ID</t>
+  </si>
+  <si>
+    <t>PK (CLUSTE</t>
+  </si>
+  <si>
+    <t>[cite: 2026-02-05]</t>
+  </si>
+  <si>
+    <t>REF_ID</t>
+  </si>
+  <si>
+    <t>참조 대상 ID</t>
+  </si>
+  <si>
+    <t>IX_REF_ID</t>
+  </si>
+  <si>
+    <t>FILE_SEQ</t>
+  </si>
+  <si>
+    <t>파일 순번</t>
+  </si>
+  <si>
+    <t>UQ_FILE_ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> REF_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순번</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노출용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식별자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>암호화된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (YYYY/MM/DD)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복호화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식별자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT('Y')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NULL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>허용</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'CUSTOMER', 'USER' 등 구분값</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업무</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (USER_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">그룹코드 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>FILE_REF_TYPE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2221,6 +2667,57 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2287,7 +2784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2342,23 +2839,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2742,47 +3248,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -3601,43 +4107,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -4526,7 +5032,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4543,46 +5049,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -4854,7 +5360,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4872,46 +5378,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7402,8 +7908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BD3378-FD9D-45AC-A3C1-E2DAF63B112D}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7575,7 +8081,7 @@
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>645</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -7977,10 +8483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD3D158-DC74-4FCE-9075-EB44920F310E}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7990,51 +8496,51 @@
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -8050,358 +8556,437 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="E6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <v>3</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="E11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="D12" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>8</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D13" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>5</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="D14" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>10</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>6</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="E15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>11</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>663</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>7</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="D16" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>12</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>13</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D18" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D19" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>15</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>16</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
-        <v>8</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>668</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
-        <v>10</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
-        <v>11</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>672</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
-        <v>13</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>673</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="21"/>
+      <c r="E21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8439,48 +9024,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -8763,48 +9348,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9300,48 +9885,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9912,48 +10497,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -10320,17 +10905,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="K1" s="15" t="s">
@@ -10338,32 +10923,32 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E0F61-22BD-48CF-99AE-6C280A94EBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3AB25-0ACF-4534-9CB8-95CA5A0CD313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" activeTab="3" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="11850" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="895" firstSheet="1" activeTab="10" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="693">
   <si>
     <t>번호</t>
   </si>
@@ -2573,6 +2573,22 @@
       </rPr>
       <t>FILE_REF_TYPE</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_EMP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당 영업 사원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[신규 추가] 영업 담당자 매핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2784,7 +2800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2848,12 +2864,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2865,6 +2875,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3248,47 +3267,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -4086,10 +4105,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC2F14-00CE-42B0-989D-BD860C538BF7}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4107,43 +4126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -4600,31 +4619,27 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>689</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>690</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
+        <v>692</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
-        <v>45</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4632,44 +4647,48 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>468</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
@@ -4680,13 +4699,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>469</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -4703,13 +4722,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -4721,53 +4740,63 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>470</v>
+        <v>325</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
-        <v>477</v>
-      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>477</v>
-      </c>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
@@ -4780,10 +4809,12 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>330</v>
+        <v>471</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
         <v>477</v>
@@ -4791,27 +4822,21 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>477</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>477</v>
@@ -4825,10 +4850,10 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>335</v>
+        <v>473</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>477</v>
@@ -4842,10 +4867,10 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>474</v>
+        <v>335</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>477</v>
@@ -4859,10 +4884,14 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
+        <v>474</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="E43" s="4" t="s">
         <v>477</v>
       </c>
@@ -4872,18 +4901,20 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="F44" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -4894,7 +4925,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -4905,7 +4936,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -4916,7 +4947,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
@@ -4927,7 +4958,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
@@ -4938,12 +4969,10 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="4" t="s">
-        <v>477</v>
-      </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
         <v>477</v>
@@ -4951,10 +4980,12 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>47</v>
+        <v>351</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
         <v>477</v>
@@ -4962,12 +4993,10 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="4" t="s">
-        <v>477</v>
-      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
         <v>477</v>
@@ -4975,43 +5004,56 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="4" t="s">
         <v>477</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="4" t="s">
-        <v>477</v>
-      </c>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5049,46 +5091,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -5378,46 +5420,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7909,7 +7951,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8485,7 +8527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD3D158-DC74-4FCE-9075-EB44920F310E}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -8500,47 +8542,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -8620,7 +8662,7 @@
       <c r="B7" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>686</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -8638,10 +8680,10 @@
       <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>671</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -8657,7 +8699,7 @@
       <c r="H8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>688</v>
       </c>
     </row>
@@ -8665,10 +8707,10 @@
       <c r="A9" s="19">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>674</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -8684,7 +8726,7 @@
       <c r="H9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="22" t="s">
         <v>676</v>
       </c>
     </row>
@@ -8736,7 +8778,7 @@
       <c r="H11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="23" t="s">
         <v>678</v>
       </c>
     </row>
@@ -8761,7 +8803,7 @@
       <c r="H12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="23" t="s">
         <v>679</v>
       </c>
     </row>
@@ -8786,7 +8828,7 @@
       <c r="H13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="23" t="s">
         <v>680</v>
       </c>
     </row>
@@ -8859,7 +8901,7 @@
       <c r="H16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="23" t="s">
         <v>681</v>
       </c>
     </row>
@@ -8903,7 +8945,7 @@
       <c r="D18" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="19"/>
@@ -8913,7 +8955,7 @@
       <c r="H18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="21" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8953,7 +8995,7 @@
       <c r="D20" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="19"/>
@@ -8961,7 +9003,7 @@
       <c r="H20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="21" t="s">
         <v>683</v>
       </c>
     </row>
@@ -9024,48 +9066,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9348,48 +9390,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9885,48 +9927,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -10497,48 +10539,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -10905,17 +10947,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="K1" s="15" t="s">
@@ -10923,32 +10965,32 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3AB25-0ACF-4534-9CB8-95CA5A0CD313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DDA0BE-D27D-47E2-BF93-940A184E503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11850" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="895" firstSheet="1" activeTab="10" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="2940" yWindow="2010" windowWidth="28800" windowHeight="15345" tabRatio="895" firstSheet="1" activeTab="10" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -2588,7 +2588,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(40)</t>
+    <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2876,14 +2876,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3267,47 +3267,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -4108,7 +4108,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4126,43 +4126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -4632,7 +4632,7 @@
       <c r="D23" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="3"/>
@@ -5091,46 +5091,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -5420,46 +5420,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -8542,47 +8542,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -9066,48 +9066,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9373,7 +9373,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -9390,48 +9390,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9927,48 +9927,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -10539,48 +10539,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -10947,17 +10947,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="K1" s="15" t="s">
@@ -10965,32 +10965,32 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DDA0BE-D27D-47E2-BF93-940A184E503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4026B99C-C140-4C52-81A9-DF8466998113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2010" windowWidth="28800" windowHeight="15345" tabRatio="895" firstSheet="1" activeTab="10" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="4110" yWindow="10050" windowWidth="28800" windowHeight="15345" tabRatio="895" firstSheet="2" activeTab="2" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
     <sheet name="공통코드" sheetId="53" r:id="rId2"/>
     <sheet name="테이블목록" sheetId="2" r:id="rId3"/>
-    <sheet name="MST_FILE_INFO" sheetId="61" r:id="rId4"/>
-    <sheet name="MST_USR_ACCOUNT" sheetId="60" r:id="rId5"/>
-    <sheet name="SYS_EMPLOYEE_MST" sheetId="59" r:id="rId6"/>
-    <sheet name="CUST_SITE" sheetId="58" r:id="rId7"/>
-    <sheet name="CUST_CONTACT_SITE_MAP" sheetId="57" r:id="rId8"/>
-    <sheet name="CUST_CONTACT_ROLE_MAP" sheetId="56" r:id="rId9"/>
-    <sheet name="CUST_CONTACT" sheetId="55" r:id="rId10"/>
-    <sheet name="CUST_CUSTOMER_MST" sheetId="54" r:id="rId11"/>
-    <sheet name="COM_CODE_GRP_MST" sheetId="49" r:id="rId12"/>
-    <sheet name="COM_CODE_DTL_MST" sheetId="51" r:id="rId13"/>
+    <sheet name="MAINT_CONTRACT_HIST" sheetId="64" r:id="rId4"/>
+    <sheet name="MAINT_CONTRACT_SITE" sheetId="63" r:id="rId5"/>
+    <sheet name="MAINT_CONTRACT" sheetId="62" r:id="rId6"/>
+    <sheet name="MST_FILE_INFO" sheetId="61" r:id="rId7"/>
+    <sheet name="MST_USR_ACCOUNT" sheetId="60" r:id="rId8"/>
+    <sheet name="SYS_EMPLOYEE_MST" sheetId="59" r:id="rId9"/>
+    <sheet name="CUST_SITE" sheetId="58" r:id="rId10"/>
+    <sheet name="CUST_CONTACT_SITE_MAP" sheetId="57" r:id="rId11"/>
+    <sheet name="CUST_CONTACT_ROLE_MAP" sheetId="56" r:id="rId12"/>
+    <sheet name="CUST_CONTACT" sheetId="55" r:id="rId13"/>
+    <sheet name="CUST_CUSTOMER_MST" sheetId="54" r:id="rId14"/>
+    <sheet name="COM_CODE_GRP_MST" sheetId="49" r:id="rId15"/>
+    <sheet name="COM_CODE_DTL_MST" sheetId="51" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="766">
   <si>
     <t>번호</t>
   </si>
@@ -2053,9 +2056,6 @@
   </si>
   <si>
     <t>파일 고유번호 (PK)</t>
-  </si>
-  <si>
-    <t>FILE_ID</t>
   </si>
   <si>
     <t>파일 식별 GUID</t>
@@ -2591,12 +2591,321 @@
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MAINT_CONTRACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지관리 계약정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_ID</t>
+  </si>
+  <si>
+    <t>CUST_ID</t>
+  </si>
+  <si>
+    <t>SCOPE_CD</t>
+  </si>
+  <si>
+    <t>계약 범위 구분</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>ALL(전체), DIV(사업장별)</t>
+  </si>
+  <si>
+    <t>CONT_DT</t>
+  </si>
+  <si>
+    <t>DECIMAL(18,0)</t>
+  </si>
+  <si>
+    <t>SALES_EMP_ID</t>
+  </si>
+  <si>
+    <t>BASE_HOURS</t>
+  </si>
+  <si>
+    <t>계약 기준 공수</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>CARRY_OVER_HRS</t>
+  </si>
+  <si>
+    <t>이전 계약에서의 +/- 시간</t>
+  </si>
+  <si>
+    <t>REMAIN_HOURS</t>
+  </si>
+  <si>
+    <t>NVARCHAR(MAX)</t>
+  </si>
+  <si>
+    <t>고객사 식별자</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>계약 체결일</t>
+  </si>
+  <si>
+    <t>유지관리 시작일</t>
+  </si>
+  <si>
+    <t>유지관리 종료일</t>
+  </si>
+  <si>
+    <t>유지관리 상태 코드</t>
+  </si>
+  <si>
+    <t>'NORMAL'</t>
+  </si>
+  <si>
+    <t>이월 공수 시간</t>
+  </si>
+  <si>
+    <t>현재 잔여 공수</t>
+  </si>
+  <si>
+    <t>비고 및 특이사항</t>
+  </si>
+  <si>
+    <t>FILE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약 관리 번호</t>
+  </si>
+  <si>
+    <t>MAINT_AMT</t>
+  </si>
+  <si>
+    <t>유지관리 총액</t>
+  </si>
+  <si>
+    <t>담당 영업 번호</t>
+  </si>
+  <si>
+    <t>IDENTITY(1,1), 파일 참조용 REF_ID</t>
+  </si>
+  <si>
+    <t>CUST_CUSTOMER_MST.CUSTOMER_ID 참조</t>
+  </si>
+  <si>
+    <t>전체 계약 유지관리 총액</t>
+  </si>
+  <si>
+    <t>Users.UserNo 매핑</t>
+  </si>
+  <si>
+    <t>감사 필드</t>
+  </si>
+  <si>
+    <t>MAINT_CONTRACT_SITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약 대상 사업장 매핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK/FK</t>
+  </si>
+  <si>
+    <t>사업장 식별자</t>
+  </si>
+  <si>
+    <t>SITE_MAINT_AMT</t>
+  </si>
+  <si>
+    <t>사업장별 유지관리금액</t>
+  </si>
+  <si>
+    <t>개별 사업장 배정 금액</t>
+  </si>
+  <si>
+    <t>SITE_NOTE</t>
+  </si>
+  <si>
+    <t>사업장별 특이사항</t>
+  </si>
+  <si>
+    <t>MAINT_CONTRACT.CONT_ID 참조</t>
+  </si>
+  <si>
+    <t>정상, 만료, 해지, 미체결 등</t>
+  </si>
+  <si>
+    <t>치환 규칙이 적용된 합산 시간</t>
+  </si>
+  <si>
+    <t>CONT_TERM_TEXT</t>
+  </si>
+  <si>
+    <t>계약 조건 원문</t>
+  </si>
+  <si>
+    <t>예: "월 16시간, 현장지원 1회"</t>
+  </si>
+  <si>
+    <t>CALC_BASIS</t>
+  </si>
+  <si>
+    <t>계산 근거</t>
+  </si>
+  <si>
+    <t>예: "1M/M(160h) * 2명 = 320h"</t>
+  </si>
+  <si>
+    <t>BASE_HOURS + CARRY_OVER_HRS - 사용공수</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CUST_SITE.SITE_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIST_SEQ</t>
+  </si>
+  <si>
+    <t>이력 일련번호</t>
+  </si>
+  <si>
+    <t>HIST_DT</t>
+  </si>
+  <si>
+    <t>이력 기록일시</t>
+  </si>
+  <si>
+    <t>스냅샷 생성 시점</t>
+  </si>
+  <si>
+    <t>당시 유지관리 총액</t>
+  </si>
+  <si>
+    <t>당시 기준 공수</t>
+  </si>
+  <si>
+    <t>당시 잔여 공수</t>
+  </si>
+  <si>
+    <t>CHG_REASON</t>
+  </si>
+  <si>
+    <t>변경 사유</t>
+  </si>
+  <si>
+    <t>갱신, 중간 정산 등</t>
+  </si>
+  <si>
+    <t>처리자</t>
+  </si>
+  <si>
+    <t>MAINT_CONTRACT_HIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약 변경 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2734,6 +3043,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2800,7 +3117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2884,6 +3201,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3250,11 +3570,1426 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7327DE-65FD-48BC-9BB0-86C782D5A620}">
-  <dimension ref="A1:I47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I23"/>
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{0733D383-888A-4CFA-A03B-EC22DDADC5A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C105AF0-B090-496A-968F-781BA47C2FC0}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{A1903D38-92A8-4BCA-A437-24ECA5E37314}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390B5EB-DD6B-4BCA-95BD-A9C9896724A5}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{5429056C-D785-4719-8D13-E0BFB0722143}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7327DE-65FD-48BC-9BB0-86C782D5A620}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3266,7 +5001,7 @@
     <col min="9" max="9" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3280,8 +5015,11 @@
       <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -3296,7 +5034,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
@@ -3311,7 +5049,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3322,7 +5060,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -3351,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3378,7 +5116,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -3405,7 +5143,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -3432,7 +5170,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -3457,7 +5195,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -3482,7 +5220,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -3507,7 +5245,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -3532,7 +5270,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -3557,7 +5295,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -3584,7 +5322,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -3611,7 +5349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -4099,16 +5837,19 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{0A96514E-271B-424C-A3B9-E6CE240305C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CC2F14-00CE-42B0-989D-BD860C538BF7}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4137,6 +5878,9 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -4624,13 +6368,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>690</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>13</v>
@@ -4639,7 +6383,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5065,16 +6809,19 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{BF16C0A2-8DBD-4EDF-9ECA-6B9E9E200620}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9611A161-A5E8-4D6A-BBF2-86194D46CA64}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5397,12 +7144,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345CEA98-5B71-488C-A0BF-184A31A0E369}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7950,8 +9697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BD3378-FD9D-45AC-A3C1-E2DAF63B112D}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8138,8 +9885,12 @@
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>693</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -8149,8 +9900,12 @@
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>731</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8518,17 +10273,1306 @@
     <hyperlink ref="C9" location="SYS_EMPLOYEE_MST!A1" display="SYS_EMPLOYEE_MST" xr:uid="{E08B2DDE-C20E-444C-8281-E82385B6D621}"/>
     <hyperlink ref="C10" location="MST_USR_ACCOUNT!A1" display="MST_USR_ACCOUNT" xr:uid="{90750237-E698-4718-9731-EE644F7C0CDC}"/>
     <hyperlink ref="C11" location="MST_FILE_INFO!A1" display="MST_FILE_INFO" xr:uid="{2AE0E458-C514-4C01-9F56-6E9E5FBF71EB}"/>
+    <hyperlink ref="C12" location="MAINT_CONTRACT!A1" display="MAINT_CONTRACT" xr:uid="{EC0B342C-DD2F-4A5D-A26B-351D024C8E36}"/>
+    <hyperlink ref="C13" location="MAINT_CONTRACT_SITE!A1" display="MAINT_CONTRACT_SITE" xr:uid="{450546B7-1CC5-4939-BA10-94A10495D954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD3D158-DC74-4FCE-9075-EB44920F310E}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F945FAB-E29A-4FC3-B456-6AA6B04D0C8B}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{BE29A9D3-EB32-4C2A-9559-4E4BB190BC62}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77991079-F0B5-41FF-811B-78C3EC253F0F}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>8</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>765</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{8CF7E324-D3BF-4EB0-9593-87F5C2EE5B59}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3C2743-A1BE-4D8D-97E9-61CFC7C9A097}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>8</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>10</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>11</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>12</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
+        <v>13</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28">
+        <v>0</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>14</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>15</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>16</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>17</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>18</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>19</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="테이블목록!A1" display="목록" xr:uid="{54A0ACCB-3BB1-42ED-BDB9-0CDA17D99795}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD3D158-DC74-4FCE-9075-EB44920F310E}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8541,7 +11585,7 @@
     <col min="9" max="9" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -8555,8 +11599,11 @@
       <c r="G1" s="27"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -8571,7 +11618,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
@@ -8586,7 +11633,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8597,7 +11644,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -8626,7 +11673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>1</v>
       </c>
@@ -8643,7 +11690,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>327</v>
@@ -8652,39 +11699,39 @@
         <v>13</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>684</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>685</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>670</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>671</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>628</v>
@@ -8693,25 +11740,25 @@
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>673</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>674</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>48</v>
@@ -8727,18 +11774,18 @@
         <v>15</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>649</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>650</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>628</v>
@@ -8747,28 +11794,28 @@
         <v>15</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>652</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>653</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>15</v>
@@ -8779,21 +11826,21 @@
         <v>15</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>655</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>15</v>
@@ -8804,18 +11851,18 @@
         <v>15</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>656</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>657</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>618</v>
@@ -8829,18 +11876,18 @@
         <v>15</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>658</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>659</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>326</v>
@@ -8857,18 +11904,18 @@
       </c>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>10</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>661</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>662</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>15</v>
@@ -8880,15 +11927,15 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>663</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>664</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>596</v>
@@ -8902,7 +11949,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -8929,7 +11976,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -8940,7 +11987,7 @@
         <v>519</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>639</v>
@@ -8956,7 +12003,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8967,7 +12014,7 @@
         <v>521</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>628</v>
@@ -9004,7 +12051,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -9015,7 +12062,7 @@
         <v>525</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>628</v>
@@ -9040,16 +12087,19 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{0E75EFD4-073D-4D23-A2D8-355A671D41EE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C35920-FB6B-454D-879D-212B54A92065}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -9368,12 +12418,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F84654-48FF-4FE4-B707-80EFC24828F1}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -9903,1419 +12953,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
-  <dimension ref="A1:K25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="13.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="10"/>
-      <c r="K1" s="17" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{0733D383-888A-4CFA-A03B-EC22DDADC5A6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C105AF0-B090-496A-968F-781BA47C2FC0}">
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="37.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="10"/>
-      <c r="K1" s="17" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{A1903D38-92A8-4BCA-A437-24ECA5E37314}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D390B5EB-DD6B-4BCA-95BD-A9C9896724A5}">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K1" location="테이블목록!A1" display="목록" xr:uid="{5429056C-D785-4719-8D13-E0BFB0722143}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64ED0A-BD5B-488E-9EE2-245411033BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F25F13D-0A1C-4E42-BF1F-C2EDD2625720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="895" firstSheet="4" activeTab="17" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="6915" yWindow="5535" windowWidth="28800" windowHeight="15345" tabRatio="895" firstSheet="5" activeTab="13" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -4292,23 +4292,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4327,6 +4315,18 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4711,17 +4711,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -4729,32 +4729,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>772</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>767</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -4805,13 +4805,13 @@
       <c r="B6" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>789</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="19" t="s">
@@ -4821,7 +4821,7 @@
       <c r="H6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
@@ -4830,13 +4830,13 @@
       <c r="B7" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>812</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="19"/>
@@ -4844,7 +4844,7 @@
       <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
@@ -4853,13 +4853,13 @@
       <c r="B8" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>814</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="19"/>
@@ -4867,7 +4867,7 @@
       <c r="H8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
@@ -4876,13 +4876,13 @@
       <c r="B9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>817</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="19"/>
@@ -4899,13 +4899,13 @@
       <c r="B10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="19"/>
@@ -4915,7 +4915,7 @@
       <c r="H10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="27" t="s">
         <v>820</v>
       </c>
     </row>
@@ -4926,13 +4926,13 @@
       <c r="B11" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>822</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="19"/>
@@ -4940,7 +4940,7 @@
       <c r="H11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="27" t="s">
         <v>826</v>
       </c>
     </row>
@@ -4951,13 +4951,13 @@
       <c r="B12" s="19" t="s">
         <v>824</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>825</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="19"/>
@@ -4965,7 +4965,7 @@
       <c r="H12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="27" t="s">
         <v>823</v>
       </c>
     </row>
@@ -4976,13 +4976,13 @@
       <c r="B13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>664</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="19"/>
@@ -5001,13 +5001,13 @@
       <c r="B14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>810</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="19"/>
@@ -5024,13 +5024,13 @@
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="19"/>
@@ -5047,13 +5047,13 @@
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="19"/>
@@ -5090,666 +5090,666 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
-    <col min="2" max="2" width="22.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="36"/>
-    <col min="6" max="6" width="30.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="36"/>
-    <col min="9" max="9" width="45.125" style="36" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="32"/>
+    <col min="2" max="2" width="22.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="32"/>
+    <col min="6" max="6" width="30.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="32"/>
+    <col min="9" max="9" width="45.125" style="32" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>766</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+      <c r="A6" s="34">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>776</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="38" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="34" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="A7" s="34">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>778</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="34" t="s">
         <v>779</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>780</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="38" t="s">
+      <c r="H7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="34" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+      <c r="A8" s="34">
         <v>3</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="34" t="s">
         <v>782</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>783</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="A9" s="34">
         <v>4</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="34" t="s">
         <v>785</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="38" t="s">
+      <c r="E9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="A10" s="34">
         <v>5</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="34" t="s">
         <v>788</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="34" t="s">
         <v>789</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>790</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="A11" s="34">
         <v>6</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="34" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="38" t="s">
+      <c r="E11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>793</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="34" t="s">
         <v>794</v>
       </c>
-      <c r="H11" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="38" t="s">
+      <c r="H11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+      <c r="A12" s="34">
         <v>7</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="34" t="s">
         <v>933</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="34" t="s">
         <v>934</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38">
+      <c r="E12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="38" t="s">
+      <c r="H12" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="34" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+      <c r="A13" s="34">
         <v>8</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="34" t="s">
         <v>937</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="34" t="s">
         <v>938</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38">
+      <c r="E13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="38" t="s">
+      <c r="H13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="A14" s="34">
         <v>9</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="34" t="s">
         <v>941</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38">
+      <c r="E14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34">
         <v>0</v>
       </c>
-      <c r="H14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="34" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="A15" s="34">
         <v>10</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>943</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="34" t="s">
         <v>944</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38">
+      <c r="E15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+      <c r="A16" s="34">
         <v>11</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="34" t="s">
         <v>796</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="34" t="s">
         <v>797</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="34" t="s">
         <v>709</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="38" t="s">
+      <c r="E16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="34" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
+      <c r="A17" s="34">
         <v>12</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="34" t="s">
         <v>799</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="34" t="s">
         <v>800</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="38" t="s">
+      <c r="E17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>801</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="38" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="38">
-        <v>13</v>
-      </c>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="34">
+        <v>13</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="34" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="38" t="s">
+      <c r="E18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>804</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="38" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="38">
+      <c r="A19" s="34">
         <v>14</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="34" t="s">
         <v>806</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="38" t="s">
+      <c r="E19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>807</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="38" t="s">
+      <c r="G19" s="34"/>
+      <c r="H19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
-        <v>15</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="34">
+        <v>15</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>946</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="34" t="s">
         <v>947</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="34" t="s">
         <v>948</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="34" t="s">
         <v>949</v>
       </c>
-      <c r="H20" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="38" t="s">
+      <c r="H20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
+      <c r="A21" s="34">
         <v>16</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="34" t="s">
         <v>951</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="34" t="s">
         <v>952</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="38" t="s">
+      <c r="E21" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>953</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="38" t="s">
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="34" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+      <c r="A22" s="34">
         <v>17</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="34" t="s">
         <v>955</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="34" t="s">
         <v>956</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="34" t="s">
         <v>815</v>
       </c>
-      <c r="E22" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="38" t="s">
+      <c r="E22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
+      <c r="A23" s="34">
         <v>18</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="34" t="s">
         <v>664</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="E23" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38" t="s">
+      <c r="E23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="H23" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="38" t="s">
+      <c r="H23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="34" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
+      <c r="A24" s="34">
         <v>19</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="34" t="s">
         <v>810</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="E24" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="38" t="s">
+      <c r="E24" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+      <c r="A25" s="34">
         <v>20</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="E25" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="38" t="s">
+      <c r="E25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="38">
+      <c r="A26" s="34">
         <v>21</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="E26" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="38" t="s">
+      <c r="E26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="34" t="s">
         <v>809</v>
       </c>
     </row>
@@ -5789,17 +5789,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -5807,32 +5807,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>762</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>763</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -6110,17 +6110,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -6128,32 +6128,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>730</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>731</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -6424,8 +6424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3C2743-A1BE-4D8D-97E9-61CFC7C9A097}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6439,17 +6439,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -6457,32 +6457,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>692</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>693</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -7047,17 +7047,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="K1" s="8" t="s">
@@ -7065,32 +7065,32 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -7577,48 +7577,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>621</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7901,48 +7901,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -8420,7 +8420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B58D8E3-F5B7-42A3-8170-EB4A49EDFEE7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -8438,48 +8438,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9050,48 +9050,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="K1" s="17" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -11598,17 +11598,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="K1" s="15" t="s">
@@ -11616,32 +11616,32 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -11989,17 +11989,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -12007,32 +12007,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -12854,46 +12854,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -13825,46 +13825,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -14154,46 +14154,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -14545,7 +14545,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -15181,17 +15181,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -15199,32 +15199,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>912</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>913</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -15269,130 +15269,130 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>914</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>915</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="29" t="s">
+      <c r="H6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>835</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>916</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="29"/>
+      <c r="H7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>918</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>609</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>919</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="H8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="29"/>
+      <c r="H8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>921</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19">
         <v>0</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>923</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>924</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>925</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="19" t="s">
@@ -15400,57 +15400,57 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>928</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>929</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="29" t="s">
+      <c r="H11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>931</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>932</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="29"/>
+      <c r="H12" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -15462,20 +15462,20 @@
       <c r="D13" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -15487,12 +15487,12 @@
       <c r="D14" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="19"/>
@@ -15533,17 +15533,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -15551,32 +15551,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>886</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>885</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -15621,13 +15621,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>888</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -15643,18 +15643,18 @@
       <c r="H6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>890</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -15670,18 +15670,18 @@
       <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="27" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>894</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -15697,18 +15697,18 @@
       <c r="H8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>897</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>898</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -15724,18 +15724,18 @@
       <c r="H9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="27" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>901</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>902</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -15749,18 +15749,18 @@
       <c r="H10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="27" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>904</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>905</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -15779,13 +15779,13 @@
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>907</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>908</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -15803,16 +15803,16 @@
       <c r="H12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>910</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -15828,7 +15828,7 @@
       <c r="H13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="27" t="s">
         <v>911</v>
       </c>
     </row>
@@ -15868,17 +15868,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -15886,32 +15886,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>862</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -15956,13 +15956,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>751</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -15978,18 +15978,18 @@
       <c r="H6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>835</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -16005,16 +16005,16 @@
       <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>865</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -16030,18 +16030,18 @@
       <c r="H8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>869</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -16055,18 +16055,18 @@
       <c r="H9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="27" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>872</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -16082,18 +16082,18 @@
       <c r="H10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="27" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>875</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -16114,13 +16114,13 @@
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>878</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -16139,13 +16139,13 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>881</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -16159,12 +16159,12 @@
       <c r="H13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="27" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -16189,7 +16189,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+      <c r="A15" s="28">
         <v>10</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -16214,7 +16214,7 @@
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="28">
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -16272,17 +16272,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -16290,32 +16290,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>845</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -16360,13 +16360,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>751</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -16382,18 +16382,18 @@
       <c r="H6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>835</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -16409,16 +16409,16 @@
       <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>847</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>848</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -16434,18 +16434,18 @@
       <c r="H8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>852</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -16461,16 +16461,16 @@
       <c r="H9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>855</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -16484,18 +16484,18 @@
       <c r="H10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="27" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>856</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>857</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -16511,12 +16511,12 @@
       <c r="H11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="27" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -16539,7 +16539,7 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -16564,7 +16564,7 @@
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -16622,17 +16622,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -16640,30 +16640,30 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>773</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -16708,19 +16708,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>833</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>834</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="19" t="s">
@@ -16730,24 +16730,24 @@
       <c r="H6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>835</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -16757,24 +16757,24 @@
       <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="27" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>827</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>838</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -16784,24 +16784,24 @@
       <c r="H8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>842</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="19"/>
@@ -16811,24 +16811,24 @@
       <c r="H9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="27" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>844</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="19"/>
@@ -16836,22 +16836,22 @@
       <c r="H10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>664</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="19"/>
@@ -16864,19 +16864,19 @@
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>810</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="19"/>
@@ -16922,17 +16922,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8" t="s">
@@ -16940,32 +16940,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>775</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>768</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
@@ -17010,218 +17010,218 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>827</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>828</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="29"/>
+      <c r="H6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>830</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="29"/>
+      <c r="H7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>831</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>832</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="29" t="s">
+      <c r="H8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>816</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="29"/>
+      <c r="H10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>664</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="29"/>
+      <c r="H11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>810</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="19"/>

--- a/001.Document/데이터베이스_V1.0.xlsx
+++ b/001.Document/데이터베이스_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F25F13D-0A1C-4E42-BF1F-C2EDD2625720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1CC95C-5CC8-40E8-B4F1-F1FC2EDCFBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="5535" windowWidth="28800" windowHeight="15345" tabRatio="895" firstSheet="5" activeTab="13" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
+    <workbookView xWindow="6915" yWindow="5535" windowWidth="28800" windowHeight="15345" tabRatio="895" firstSheet="2" activeTab="2" xr2:uid="{96070F53-2C7E-4C08-A632-4629BF899836}"/>
   </bookViews>
   <sheets>
     <sheet name="개인AI 요청사항" sheetId="52" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="958">
   <si>
     <t>번호</t>
   </si>
@@ -5775,7 +5775,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6096,7 +6096,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6424,8 +6424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3C2743-A1BE-4D8D-97E9-61CFC7C9A097}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14542,10 +14542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BD3378-FD9D-45AC-A3C1-E2DAF63B112D}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -14757,123 +14757,127 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>771</v>
+      <c r="C14" s="20" t="s">
+        <v>762</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>774</v>
+      <c r="C18" s="9" t="s">
+        <v>773</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>861</v>
+        <v>774</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>862</v>
+        <v>770</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>885</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -14884,7 +14888,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
@@ -14895,7 +14899,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -14906,7 +14910,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
@@ -14917,7 +14921,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
@@ -14928,7 +14932,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -14939,7 +14943,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -14950,7 +14954,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
@@ -14961,7 +14965,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -14972,7 +14976,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -14983,7 +14987,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
@@ -14994,7 +14998,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
@@ -15005,7 +15009,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
@@ -15016,7 +15020,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
@@ -15027,7 +15031,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
@@ -15038,7 +15042,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -15049,7 +15053,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -15060,7 +15064,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
@@ -15071,7 +15075,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
@@ -15082,7 +15086,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
@@ -15093,7 +15097,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -15104,7 +15108,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
@@ -15115,7 +15119,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>5</v>
@@ -15126,7 +15130,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -15134,6 +15138,17 @@
       <c r="C45" s="9"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>53</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15150,13 +15165,14 @@
     <hyperlink ref="C11" location="MST_FILE_INFO!A1" display="MST_FILE_INFO" xr:uid="{2AE0E458-C514-4C01-9F56-6E9E5FBF71EB}"/>
     <hyperlink ref="C12" location="MAINT_CONTRACT!A1" display="MAINT_CONTRACT" xr:uid="{EC0B342C-DD2F-4A5D-A26B-351D024C8E36}"/>
     <hyperlink ref="C13" location="MAINT_CONTRACT_SITE!A1" display="MAINT_CONTRACT_SITE" xr:uid="{450546B7-1CC5-4939-BA10-94A10495D954}"/>
-    <hyperlink ref="C14" location="SR_TICKET_MST!A1" display="SR_TICKET_MST" xr:uid="{5B316D89-7380-47E6-8088-238FF98B53BC}"/>
-    <hyperlink ref="C15" location="SR_TYPE_MST!A1" display="SR_TYPE_MST" xr:uid="{1972564C-2BC7-44C9-AFF4-1B68B42489C0}"/>
-    <hyperlink ref="C16" location="SR_PROGRAM_MST!A1" display="SR_PROGRAM_MST" xr:uid="{603739A2-9791-456B-A50B-A91062C5930F}"/>
-    <hyperlink ref="C17" location="SR_TICKET_PROGRAM_MAP!A1" display="SR_TICKET_PROGRAM_MAP" xr:uid="{69CDC49F-CCCB-498A-8AF5-B3A26EEB970C}"/>
-    <hyperlink ref="C18" location="SR_RESPONSE_HIS!A1" display="SR_RESPONSE_HIS" xr:uid="{A78A419B-51A1-4EBA-BF30-8C67D7C7E1A8}"/>
-    <hyperlink ref="C19" location="SR_EVENT_HIS!A1" display="SR_EVENT_HIS" xr:uid="{299207F5-EFAA-4110-B15D-C3FEA5E524CC}"/>
-    <hyperlink ref="C20" location="SR_LINK_MAP!A1" display="SR_LINK_MAP" xr:uid="{BA87C0FC-0239-42A8-8FF2-6CF550C61DBF}"/>
+    <hyperlink ref="C15" location="SR_TICKET_MST!A1" display="SR_TICKET_MST" xr:uid="{5B316D89-7380-47E6-8088-238FF98B53BC}"/>
+    <hyperlink ref="C16" location="SR_TYPE_MST!A1" display="SR_TYPE_MST" xr:uid="{1972564C-2BC7-44C9-AFF4-1B68B42489C0}"/>
+    <hyperlink ref="C17" location="SR_PROGRAM_MST!A1" display="SR_PROGRAM_MST" xr:uid="{603739A2-9791-456B-A50B-A91062C5930F}"/>
+    <hyperlink ref="C18" location="SR_TICKET_PROGRAM_MAP!A1" display="SR_TICKET_PROGRAM_MAP" xr:uid="{69CDC49F-CCCB-498A-8AF5-B3A26EEB970C}"/>
+    <hyperlink ref="C19" location="SR_RESPONSE_HIS!A1" display="SR_RESPONSE_HIS" xr:uid="{A78A419B-51A1-4EBA-BF30-8C67D7C7E1A8}"/>
+    <hyperlink ref="C20" location="SR_EVENT_HIS!A1" display="SR_EVENT_HIS" xr:uid="{299207F5-EFAA-4110-B15D-C3FEA5E524CC}"/>
+    <hyperlink ref="C21" location="SR_LINK_MAP!A1" display="SR_LINK_MAP" xr:uid="{BA87C0FC-0239-42A8-8FF2-6CF550C61DBF}"/>
+    <hyperlink ref="C14" location="MAINT_CONTRACT_HIST!A1" display="MAINT_CONTRACT_HIST" xr:uid="{E7AAD1A4-41CC-4513-889D-EE65958EB207}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
